--- a/Code/Results/Cases/Case_5_168/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_168/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.091122785811876</v>
+        <v>0.3770835877108993</v>
       </c>
       <c r="C2">
-        <v>0.1694909872852719</v>
+        <v>0.06204085455566144</v>
       </c>
       <c r="D2">
-        <v>0.04943596884738355</v>
+        <v>0.02428201727138912</v>
       </c>
       <c r="E2">
-        <v>1.392440247017603</v>
+        <v>0.4169131172345146</v>
       </c>
       <c r="F2">
-        <v>0.5207747214362684</v>
+        <v>0.6745040499286858</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.163274244230479</v>
+        <v>0.3628246890282298</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6109476345466129</v>
+        <v>1.274553151604098</v>
       </c>
       <c r="O2">
-        <v>1.486946019664344</v>
+        <v>2.286437771945032</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9467666761072735</v>
+        <v>0.3350854292756082</v>
       </c>
       <c r="C3">
-        <v>0.1510548255390773</v>
+        <v>0.05623166161691984</v>
       </c>
       <c r="D3">
-        <v>0.04468659607642422</v>
+        <v>0.02260588466059232</v>
       </c>
       <c r="E3">
-        <v>1.196578714534454</v>
+        <v>0.3637838837403251</v>
       </c>
       <c r="F3">
-        <v>0.4836755963452362</v>
+        <v>0.6703514289716281</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.011687496838476</v>
+        <v>0.3177370021363402</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6497633903003943</v>
+        <v>1.290348779401116</v>
       </c>
       <c r="O3">
-        <v>1.412453450586156</v>
+        <v>2.286328194739156</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8584876231990961</v>
+        <v>0.3093405411888739</v>
       </c>
       <c r="C4">
-        <v>0.1397475024127175</v>
+        <v>0.05264010522189722</v>
       </c>
       <c r="D4">
-        <v>0.04175545259219859</v>
+        <v>0.02156747538315074</v>
       </c>
       <c r="E4">
-        <v>1.078390260062491</v>
+        <v>0.3312461650622112</v>
       </c>
       <c r="F4">
-        <v>0.4619957181158512</v>
+        <v>0.668253361976852</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9189004156526153</v>
+        <v>0.290029613369768</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6746394851341146</v>
+        <v>1.300534452545088</v>
       </c>
       <c r="O4">
-        <v>1.370257303277668</v>
+        <v>2.287740803486457</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8225837914901888</v>
+        <v>0.298860230531119</v>
       </c>
       <c r="C5">
-        <v>0.135140377733066</v>
+        <v>0.05117033785475655</v>
       </c>
       <c r="D5">
-        <v>0.04055711913321147</v>
+        <v>0.02114201639175661</v>
       </c>
       <c r="E5">
-        <v>1.030670211302763</v>
+        <v>0.3180062801570642</v>
       </c>
       <c r="F5">
-        <v>0.4534187069004005</v>
+        <v>0.6675118070990251</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8811415321322613</v>
+        <v>0.2787330757165307</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6850311738576834</v>
+        <v>1.304807596311643</v>
       </c>
       <c r="O5">
-        <v>1.353896053793562</v>
+        <v>2.288687992941732</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.816625720420717</v>
+        <v>0.2971206537965543</v>
       </c>
       <c r="C6">
-        <v>0.1343753422608529</v>
+        <v>0.05092591177815109</v>
       </c>
       <c r="D6">
-        <v>0.04035790053966792</v>
+        <v>0.02107123126406663</v>
       </c>
       <c r="E6">
-        <v>1.022770903654177</v>
+        <v>0.3158089389431211</v>
       </c>
       <c r="F6">
-        <v>0.4520095410268823</v>
+        <v>0.6673955187059732</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8748743228199487</v>
+        <v>0.2768569685403293</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.68677185588469</v>
+        <v>1.305524538769181</v>
       </c>
       <c r="O6">
-        <v>1.351228058215668</v>
+        <v>2.288867695942258</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.85800314989757</v>
+        <v>0.3091991553053504</v>
       </c>
       <c r="C7">
-        <v>0.1396853693907048</v>
+        <v>0.05262030840498255</v>
       </c>
       <c r="D7">
-        <v>0.04173930723040087</v>
+        <v>0.02156174676385803</v>
       </c>
       <c r="E7">
-        <v>1.077744997113825</v>
+        <v>0.3310675304697526</v>
       </c>
       <c r="F7">
-        <v>0.4618790259389911</v>
+        <v>0.6682429020565834</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9183909983158571</v>
+        <v>0.2898772863599959</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6747786106962606</v>
+        <v>1.300591586181331</v>
       </c>
       <c r="O7">
-        <v>1.370033345373173</v>
+        <v>2.287752074055277</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.041263030829441</v>
+        <v>0.3625940654347062</v>
       </c>
       <c r="C8">
-        <v>0.1631300510570526</v>
+        <v>0.06004298466108082</v>
       </c>
       <c r="D8">
-        <v>0.04780143922349822</v>
+        <v>0.02370602493751761</v>
       </c>
       <c r="E8">
-        <v>1.324428224973587</v>
+        <v>0.398575785485292</v>
       </c>
       <c r="F8">
-        <v>0.5077432199666916</v>
+        <v>0.6729783912405196</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.110935047401426</v>
+        <v>0.3472834846343744</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6241099856110059</v>
+        <v>1.279898338295268</v>
       </c>
       <c r="O8">
-        <v>1.460490423939063</v>
+        <v>2.286092475541579</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.404398682649372</v>
+        <v>0.4676261129164629</v>
       </c>
       <c r="C9">
-        <v>0.2093276188161468</v>
+        <v>0.07440233283539044</v>
       </c>
       <c r="D9">
-        <v>0.05957545792162477</v>
+        <v>0.02783640828068457</v>
       </c>
       <c r="E9">
-        <v>1.82850203870062</v>
+        <v>0.5317021362695442</v>
       </c>
       <c r="F9">
-        <v>0.6073094891596682</v>
+        <v>0.6858566540029472</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.491776426776568</v>
+        <v>0.4596627964981792</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5333977352115984</v>
+        <v>1.243186959970316</v>
       </c>
       <c r="O9">
-        <v>1.668740973525956</v>
+        <v>2.294610304080408</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.674924689108423</v>
+        <v>0.5449860507113726</v>
       </c>
       <c r="C10">
-        <v>0.2435960418212204</v>
+        <v>0.08483253962366177</v>
       </c>
       <c r="D10">
-        <v>0.06816529797068682</v>
+        <v>0.03082436763631335</v>
       </c>
       <c r="E10">
-        <v>2.217294848723228</v>
+        <v>0.6300792176655534</v>
       </c>
       <c r="F10">
-        <v>0.6876934062304372</v>
+        <v>0.6975217766324562</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.775075083233759</v>
+        <v>0.5421061580282469</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4725758114442689</v>
+        <v>1.218576562687076</v>
       </c>
       <c r="O10">
-        <v>1.844712835781166</v>
+        <v>2.308091560551418</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.79915740020499</v>
+        <v>0.5802203928164431</v>
       </c>
       <c r="C11">
-        <v>0.2593048326673113</v>
+        <v>0.08955164447634445</v>
       </c>
       <c r="D11">
-        <v>0.07206208649495238</v>
+        <v>0.03217330660614692</v>
       </c>
       <c r="E11">
-        <v>2.399721647231218</v>
+        <v>0.6749827859719204</v>
       </c>
       <c r="F11">
-        <v>0.726165964505725</v>
+        <v>0.7033101054860111</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.905085976498157</v>
+        <v>0.579585152635758</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4463050574534451</v>
+        <v>1.207894173695782</v>
       </c>
       <c r="O11">
-        <v>1.930773518928675</v>
+        <v>2.315803382655957</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.846401301407383</v>
+        <v>0.5935686640664812</v>
       </c>
       <c r="C12">
-        <v>0.2652750574088429</v>
+        <v>0.09133494437793388</v>
       </c>
       <c r="D12">
-        <v>0.07353632890628603</v>
+        <v>0.03268260799116263</v>
       </c>
       <c r="E12">
-        <v>2.46974969960948</v>
+        <v>0.69201026531357</v>
       </c>
       <c r="F12">
-        <v>0.7410390977132408</v>
+        <v>0.7055714866965985</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.954515148532295</v>
+        <v>0.5937736860143445</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4365703883961742</v>
+        <v>1.203922902070849</v>
       </c>
       <c r="O12">
-        <v>1.964320591948848</v>
+        <v>2.318951489421892</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.836217066174186</v>
+        <v>0.5906936235357705</v>
       </c>
       <c r="C13">
-        <v>0.2639882244530298</v>
+        <v>0.09095104494959116</v>
       </c>
       <c r="D13">
-        <v>0.07321888337428817</v>
+        <v>0.03257298859662683</v>
       </c>
       <c r="E13">
-        <v>2.454623246652545</v>
+        <v>0.6883420216504419</v>
       </c>
       <c r="F13">
-        <v>0.7378218491367505</v>
+        <v>0.7050813653103916</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.943860368557239</v>
+        <v>0.5907181129258561</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4386572168923479</v>
+        <v>1.204774896588738</v>
       </c>
       <c r="O13">
-        <v>1.957051448083604</v>
+        <v>2.318263344849385</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.803039991020825</v>
+        <v>0.581318449251512</v>
       </c>
       <c r="C14">
-        <v>0.2597955458131622</v>
+        <v>0.08969843243639275</v>
       </c>
       <c r="D14">
-        <v>0.07218340012106239</v>
+        <v>0.03221523763146905</v>
       </c>
       <c r="E14">
-        <v>2.405463009713458</v>
+        <v>0.6763831666734603</v>
       </c>
       <c r="F14">
-        <v>0.7273833010623036</v>
+        <v>0.7034947574093735</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.909148395524142</v>
+        <v>0.5807525330474732</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4454998258829732</v>
+        <v>1.207565972518395</v>
       </c>
       <c r="O14">
-        <v>1.933513694460004</v>
+        <v>2.316057809504969</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.782745066109641</v>
+        <v>0.5755766271189202</v>
       </c>
       <c r="C15">
-        <v>0.2572303672939569</v>
+        <v>0.08893068528364267</v>
       </c>
       <c r="D15">
-        <v>0.07154896117378229</v>
+        <v>0.03199590692435095</v>
       </c>
       <c r="E15">
-        <v>2.375478949923718</v>
+        <v>0.6690611305115084</v>
       </c>
       <c r="F15">
-        <v>0.7210299825589743</v>
+        <v>0.7025319663315628</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.887912995562061</v>
+        <v>0.574647802540909</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4497193156533597</v>
+        <v>1.209285217770343</v>
       </c>
       <c r="O15">
-        <v>1.919223796228863</v>
+        <v>2.314736544367577</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.666831943424427</v>
+        <v>0.5426842346172407</v>
       </c>
       <c r="C16">
-        <v>0.2425722136225232</v>
+        <v>0.08452361595524849</v>
       </c>
       <c r="D16">
-        <v>0.0679104304616942</v>
+        <v>0.03073600136183785</v>
       </c>
       <c r="E16">
-        <v>2.205496926265226</v>
+        <v>0.6271478550842744</v>
       </c>
       <c r="F16">
-        <v>0.6852200134400874</v>
+        <v>0.6971532065753934</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.766604222035227</v>
+        <v>0.5396562850187365</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4743218352721252</v>
+        <v>1.219285017447427</v>
       </c>
       <c r="O16">
-        <v>1.83921730212495</v>
+        <v>2.307619413299363</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.596043946093261</v>
+        <v>0.5225165380961698</v>
       </c>
       <c r="C17">
-        <v>0.2336136049022457</v>
+        <v>0.08181342782668821</v>
       </c>
       <c r="D17">
-        <v>0.06567566172985551</v>
+        <v>0.02996042984243275</v>
       </c>
       <c r="E17">
-        <v>2.102742278196885</v>
+        <v>0.6014753923364538</v>
       </c>
       <c r="F17">
-        <v>0.6637605729913361</v>
+        <v>0.6939770441816648</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.692499140445108</v>
+        <v>0.5181834819952655</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4897811975029382</v>
+        <v>1.225551067461003</v>
       </c>
       <c r="O17">
-        <v>1.791739076748996</v>
+        <v>2.303658255350484</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.55543654162949</v>
+        <v>0.5109206748485633</v>
       </c>
       <c r="C18">
-        <v>0.2284718458007688</v>
+        <v>0.0802521871741817</v>
       </c>
       <c r="D18">
-        <v>0.0643892573387248</v>
+        <v>0.02951337413139044</v>
       </c>
       <c r="E18">
-        <v>2.044154327361227</v>
+        <v>0.5867234126350667</v>
       </c>
       <c r="F18">
-        <v>0.6515950494124922</v>
+        <v>0.6921955384214868</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.649980684893677</v>
+        <v>0.5058305713976381</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4988037362529107</v>
+        <v>1.229203411001968</v>
       </c>
       <c r="O18">
-        <v>1.764990474331086</v>
+        <v>2.301528493406948</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.541705204617671</v>
+        <v>0.5069952241467774</v>
       </c>
       <c r="C19">
-        <v>0.2267326967569829</v>
+        <v>0.07972316468554652</v>
       </c>
       <c r="D19">
-        <v>0.06395352222954642</v>
+        <v>0.02936184354761906</v>
       </c>
       <c r="E19">
-        <v>2.024401512104376</v>
+        <v>0.5817310227705832</v>
       </c>
       <c r="F19">
-        <v>0.6475055956080951</v>
+        <v>0.6916001325926686</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.635601706459653</v>
+        <v>0.5016477004942033</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5018806995170726</v>
+        <v>1.230448318999894</v>
       </c>
       <c r="O19">
-        <v>1.756027263986141</v>
+        <v>2.30083289115251</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.603568054754049</v>
+        <v>0.5246630061444364</v>
       </c>
       <c r="C20">
-        <v>0.2345660957436593</v>
+        <v>0.08210218187672069</v>
       </c>
       <c r="D20">
-        <v>0.06591366157837086</v>
+        <v>0.03004309111564396</v>
       </c>
       <c r="E20">
-        <v>2.113626501716553</v>
+        <v>0.6042067938678031</v>
       </c>
       <c r="F20">
-        <v>0.666026397624421</v>
+        <v>0.6943104583603485</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.700376672295988</v>
+        <v>0.5204695415433491</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4881219052430845</v>
+        <v>1.224879038154796</v>
       </c>
       <c r="O20">
-        <v>1.796734647189197</v>
+        <v>2.304064543443786</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.812779216493396</v>
+        <v>0.5840720110724078</v>
       </c>
       <c r="C21">
-        <v>0.2610264120974932</v>
+        <v>0.09006645640046429</v>
       </c>
       <c r="D21">
-        <v>0.07248758292973889</v>
+        <v>0.03232035906245301</v>
       </c>
       <c r="E21">
-        <v>2.419875597748572</v>
+        <v>0.6798951215307767</v>
       </c>
       <c r="F21">
-        <v>0.7304408377002432</v>
+        <v>0.7039588958371326</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.91933851776318</v>
+        <v>0.5836797755066243</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4434840861829576</v>
+        <v>1.206744158572606</v>
       </c>
       <c r="O21">
-        <v>1.940400520352171</v>
+        <v>2.316699440240058</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.95069155374901</v>
+        <v>0.622932806178369</v>
       </c>
       <c r="C22">
-        <v>0.2784483484633569</v>
+        <v>0.09524985580911505</v>
       </c>
       <c r="D22">
-        <v>0.076776022222937</v>
+        <v>0.03379985458066415</v>
       </c>
       <c r="E22">
-        <v>2.625629038630905</v>
+        <v>0.7294994389327059</v>
       </c>
       <c r="F22">
-        <v>0.774329946166489</v>
+        <v>0.7106696982456668</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.063608226613752</v>
+        <v>0.6249681334511195</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4155617299635184</v>
+        <v>1.195322883767864</v>
       </c>
       <c r="O22">
-        <v>2.039927065127671</v>
+        <v>2.326285251598364</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.876965859786424</v>
+        <v>0.6021891218030078</v>
       </c>
       <c r="C23">
-        <v>0.2691365781206514</v>
+        <v>0.09248537614871566</v>
       </c>
       <c r="D23">
-        <v>0.07448787610439922</v>
+        <v>0.03301103839235253</v>
       </c>
       <c r="E23">
-        <v>2.515248388519282</v>
+        <v>0.70301152019114</v>
       </c>
       <c r="F23">
-        <v>0.7507308668821935</v>
+        <v>0.70705089919106</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.986490199817979</v>
+        <v>0.6029340020307643</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4303455128351845</v>
+        <v>1.201379154373726</v>
       </c>
       <c r="O23">
-        <v>1.986259211990159</v>
+        <v>2.321047353218461</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.600166128622277</v>
+        <v>0.5236925916059079</v>
       </c>
       <c r="C24">
-        <v>0.2341354479732161</v>
+        <v>0.08197164587939199</v>
       </c>
       <c r="D24">
-        <v>0.06580606686141266</v>
+        <v>0.03000572359317744</v>
       </c>
       <c r="E24">
-        <v>2.108704238036822</v>
+        <v>0.6029719041563197</v>
       </c>
       <c r="F24">
-        <v>0.6650014854696167</v>
+        <v>0.6941595831670782</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.696814976180178</v>
+        <v>0.5194360386356891</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4888716525075665</v>
+        <v>1.225182707146136</v>
       </c>
       <c r="O24">
-        <v>1.794474452154134</v>
+        <v>2.303880400991744</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.305616931197022</v>
+        <v>0.4391779234185833</v>
       </c>
       <c r="C25">
-        <v>0.1967874927506728</v>
+        <v>0.0705387674002651</v>
       </c>
       <c r="D25">
-        <v>0.05640158720023436</v>
+        <v>0.02672713387346448</v>
       </c>
       <c r="E25">
-        <v>1.689374722117591</v>
+        <v>0.4955964288447348</v>
       </c>
       <c r="F25">
-        <v>0.5792093663527638</v>
+        <v>0.6819867835137572</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.388251836783667</v>
+        <v>0.4292823501930059</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5569575451592237</v>
+        <v>1.252703924108974</v>
       </c>
       <c r="O25">
-        <v>1.608691225995017</v>
+        <v>2.291040909878177</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_168/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_168/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3770835877108993</v>
+        <v>1.091122785811905</v>
       </c>
       <c r="C2">
-        <v>0.06204085455566144</v>
+        <v>0.1694909872850872</v>
       </c>
       <c r="D2">
-        <v>0.02428201727138912</v>
+        <v>0.04943596884733381</v>
       </c>
       <c r="E2">
-        <v>0.4169131172345146</v>
+        <v>1.392440247017589</v>
       </c>
       <c r="F2">
-        <v>0.6745040499286858</v>
+        <v>0.5207747214362684</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3628246890282298</v>
+        <v>1.163274244230479</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.274553151604098</v>
+        <v>0.6109476345466012</v>
       </c>
       <c r="O2">
-        <v>2.286437771945032</v>
+        <v>1.486946019664344</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3350854292756082</v>
+        <v>0.9467666761071882</v>
       </c>
       <c r="C3">
-        <v>0.05623166161691984</v>
+        <v>0.1510548255393047</v>
       </c>
       <c r="D3">
-        <v>0.02260588466059232</v>
+        <v>0.04468659607663028</v>
       </c>
       <c r="E3">
-        <v>0.3637838837403251</v>
+        <v>1.196578714534454</v>
       </c>
       <c r="F3">
-        <v>0.6703514289716281</v>
+        <v>0.4836755963452219</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3177370021363402</v>
+        <v>1.011687496838562</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.290348779401116</v>
+        <v>0.6497633903003841</v>
       </c>
       <c r="O3">
-        <v>2.286328194739156</v>
+        <v>1.412453450586156</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3093405411888739</v>
+        <v>0.8584876231991245</v>
       </c>
       <c r="C4">
-        <v>0.05264010522189722</v>
+        <v>0.1397475024123906</v>
       </c>
       <c r="D4">
-        <v>0.02156747538315074</v>
+        <v>0.04175545259197833</v>
       </c>
       <c r="E4">
-        <v>0.3312461650622112</v>
+        <v>1.078390260062477</v>
       </c>
       <c r="F4">
-        <v>0.668253361976852</v>
+        <v>0.461995718115837</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.290029613369768</v>
+        <v>0.9189004156527574</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.300534452545088</v>
+        <v>0.6746394851340498</v>
       </c>
       <c r="O4">
-        <v>2.287740803486457</v>
+        <v>1.370257303277668</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.298860230531119</v>
+        <v>0.8225837914902456</v>
       </c>
       <c r="C5">
-        <v>0.05117033785475655</v>
+        <v>0.1351403777329097</v>
       </c>
       <c r="D5">
-        <v>0.02114201639175661</v>
+        <v>0.04055711913309779</v>
       </c>
       <c r="E5">
-        <v>0.3180062801570642</v>
+        <v>1.030670211302763</v>
       </c>
       <c r="F5">
-        <v>0.6675118070990251</v>
+        <v>0.4534187069003792</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2787330757165307</v>
+        <v>0.8811415321323182</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.304807596311643</v>
+        <v>0.6850311738576694</v>
       </c>
       <c r="O5">
-        <v>2.288687992941732</v>
+        <v>1.353896053793619</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2971206537965543</v>
+        <v>0.8166257204207454</v>
       </c>
       <c r="C6">
-        <v>0.05092591177815109</v>
+        <v>0.1343753422608671</v>
       </c>
       <c r="D6">
-        <v>0.02107123126406663</v>
+        <v>0.04035790053979582</v>
       </c>
       <c r="E6">
-        <v>0.3158089389431211</v>
+        <v>1.022770903654191</v>
       </c>
       <c r="F6">
-        <v>0.6673955187059732</v>
+        <v>0.4520095410268965</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2768569685403293</v>
+        <v>0.874874322820034</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.305524538769181</v>
+        <v>0.6867718558846845</v>
       </c>
       <c r="O6">
-        <v>2.288867695942258</v>
+        <v>1.351228058215696</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3091991553053504</v>
+        <v>0.8580031498977121</v>
       </c>
       <c r="C7">
-        <v>0.05262030840498255</v>
+        <v>0.1396853693910174</v>
       </c>
       <c r="D7">
-        <v>0.02156174676385803</v>
+        <v>0.0417393072304364</v>
       </c>
       <c r="E7">
-        <v>0.3310675304697526</v>
+        <v>1.077744997113811</v>
       </c>
       <c r="F7">
-        <v>0.6682429020565834</v>
+        <v>0.4618790259389769</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2898772863599959</v>
+        <v>0.9183909983159424</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.300591586181331</v>
+        <v>0.6747786106962441</v>
       </c>
       <c r="O7">
-        <v>2.287752074055277</v>
+        <v>1.370033345373088</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3625940654347062</v>
+        <v>1.041263030829555</v>
       </c>
       <c r="C8">
-        <v>0.06004298466108082</v>
+        <v>0.1631300510572231</v>
       </c>
       <c r="D8">
-        <v>0.02370602493751761</v>
+        <v>0.04780143922371849</v>
       </c>
       <c r="E8">
-        <v>0.398575785485292</v>
+        <v>1.324428224973602</v>
       </c>
       <c r="F8">
-        <v>0.6729783912405196</v>
+        <v>0.5077432199666845</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3472834846343744</v>
+        <v>1.11093504740154</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.279898338295268</v>
+        <v>0.6241099856109529</v>
       </c>
       <c r="O8">
-        <v>2.286092475541579</v>
+        <v>1.460490423939035</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4676261129164629</v>
+        <v>1.404398682649514</v>
       </c>
       <c r="C9">
-        <v>0.07440233283539044</v>
+        <v>0.2093276188158057</v>
       </c>
       <c r="D9">
-        <v>0.02783640828068457</v>
+        <v>0.05957545792173846</v>
       </c>
       <c r="E9">
-        <v>0.5317021362695442</v>
+        <v>1.828502038700634</v>
       </c>
       <c r="F9">
-        <v>0.6858566540029472</v>
+        <v>0.6073094891596895</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4596627964981792</v>
+        <v>1.491776426776539</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.243186959970316</v>
+        <v>0.5333977352115848</v>
       </c>
       <c r="O9">
-        <v>2.294610304080408</v>
+        <v>1.668740973525928</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5449860507113726</v>
+        <v>1.674924689108337</v>
       </c>
       <c r="C10">
-        <v>0.08483253962366177</v>
+        <v>0.2435960418210925</v>
       </c>
       <c r="D10">
-        <v>0.03082436763631335</v>
+        <v>0.06816529797068682</v>
       </c>
       <c r="E10">
-        <v>0.6300792176655534</v>
+        <v>2.217294848723213</v>
       </c>
       <c r="F10">
-        <v>0.6975217766324562</v>
+        <v>0.687693406230423</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5421061580282469</v>
+        <v>1.775075083233872</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.218576562687076</v>
+        <v>0.4725758114442782</v>
       </c>
       <c r="O10">
-        <v>2.308091560551418</v>
+        <v>1.844712835781195</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5802203928164431</v>
+        <v>1.79915740020499</v>
       </c>
       <c r="C11">
-        <v>0.08955164447634445</v>
+        <v>0.2593048326672971</v>
       </c>
       <c r="D11">
-        <v>0.03217330660614692</v>
+        <v>0.07206208649495949</v>
       </c>
       <c r="E11">
-        <v>0.6749827859719204</v>
+        <v>2.39972164723126</v>
       </c>
       <c r="F11">
-        <v>0.7033101054860111</v>
+        <v>0.726165964505725</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.579585152635758</v>
+        <v>1.90508597649827</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.207894173695782</v>
+        <v>0.4463050574534482</v>
       </c>
       <c r="O11">
-        <v>2.315803382655957</v>
+        <v>1.930773518928646</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5935686640664812</v>
+        <v>1.846401301407383</v>
       </c>
       <c r="C12">
-        <v>0.09133494437793388</v>
+        <v>0.2652750574089282</v>
       </c>
       <c r="D12">
-        <v>0.03268260799116263</v>
+        <v>0.07353632890630735</v>
       </c>
       <c r="E12">
-        <v>0.69201026531357</v>
+        <v>2.469749699609494</v>
       </c>
       <c r="F12">
-        <v>0.7055714866965985</v>
+        <v>0.7410390977132408</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5937736860143445</v>
+        <v>1.954515148532266</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.203922902070849</v>
+        <v>0.4365703883961876</v>
       </c>
       <c r="O12">
-        <v>2.318951489421892</v>
+        <v>1.964320591948791</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5906936235357705</v>
+        <v>1.836217066174129</v>
       </c>
       <c r="C13">
-        <v>0.09095104494959116</v>
+        <v>0.2639882244528167</v>
       </c>
       <c r="D13">
-        <v>0.03257298859662683</v>
+        <v>0.07321888337429527</v>
       </c>
       <c r="E13">
-        <v>0.6883420216504419</v>
+        <v>2.454623246652531</v>
       </c>
       <c r="F13">
-        <v>0.7050813653103916</v>
+        <v>0.7378218491367505</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5907181129258561</v>
+        <v>1.943860368557324</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.204774896588738</v>
+        <v>0.4386572168923581</v>
       </c>
       <c r="O13">
-        <v>2.318263344849385</v>
+        <v>1.957051448083575</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.581318449251512</v>
+        <v>1.803039991020711</v>
       </c>
       <c r="C14">
-        <v>0.08969843243639275</v>
+        <v>0.2597955458132475</v>
       </c>
       <c r="D14">
-        <v>0.03221523763146905</v>
+        <v>0.07218340012111213</v>
       </c>
       <c r="E14">
-        <v>0.6763831666734603</v>
+        <v>2.405463009713458</v>
       </c>
       <c r="F14">
-        <v>0.7034947574093735</v>
+        <v>0.7273833010622894</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5807525330474732</v>
+        <v>1.909148395524142</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.207565972518395</v>
+        <v>0.4454998258829688</v>
       </c>
       <c r="O14">
-        <v>2.316057809504969</v>
+        <v>1.933513694460004</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5755766271189202</v>
+        <v>1.782745066109726</v>
       </c>
       <c r="C15">
-        <v>0.08893068528364267</v>
+        <v>0.257230367294099</v>
       </c>
       <c r="D15">
-        <v>0.03199590692435095</v>
+        <v>0.07154896117389598</v>
       </c>
       <c r="E15">
-        <v>0.6690611305115084</v>
+        <v>2.375478949923689</v>
       </c>
       <c r="F15">
-        <v>0.7025319663315628</v>
+        <v>0.7210299825589743</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.574647802540909</v>
+        <v>1.887912995562004</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.209285217770343</v>
+        <v>0.4497193156533028</v>
       </c>
       <c r="O15">
-        <v>2.314736544367577</v>
+        <v>1.919223796228835</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5426842346172407</v>
+        <v>1.666831943424427</v>
       </c>
       <c r="C16">
-        <v>0.08452361595524849</v>
+        <v>0.2425722136225232</v>
       </c>
       <c r="D16">
-        <v>0.03073600136183785</v>
+        <v>0.06791043046180079</v>
       </c>
       <c r="E16">
-        <v>0.6271478550842744</v>
+        <v>2.205496926265226</v>
       </c>
       <c r="F16">
-        <v>0.6971532065753934</v>
+        <v>0.6852200134400874</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5396562850187365</v>
+        <v>1.766604222035198</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.219285017447427</v>
+        <v>0.4743218352721135</v>
       </c>
       <c r="O16">
-        <v>2.307619413299363</v>
+        <v>1.839217302124922</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5225165380961698</v>
+        <v>1.596043946093289</v>
       </c>
       <c r="C17">
-        <v>0.08181342782668821</v>
+        <v>0.2336136049021604</v>
       </c>
       <c r="D17">
-        <v>0.02996042984243275</v>
+        <v>0.06567566172979866</v>
       </c>
       <c r="E17">
-        <v>0.6014753923364538</v>
+        <v>2.102742278196899</v>
       </c>
       <c r="F17">
-        <v>0.6939770441816648</v>
+        <v>0.6637605729913361</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5181834819952655</v>
+        <v>1.692499140444966</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.225551067461003</v>
+        <v>0.489781197502938</v>
       </c>
       <c r="O17">
-        <v>2.303658255350484</v>
+        <v>1.791739076748854</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5109206748485633</v>
+        <v>1.555436541629604</v>
       </c>
       <c r="C18">
-        <v>0.0802521871741817</v>
+        <v>0.2284718458006125</v>
       </c>
       <c r="D18">
-        <v>0.02951337413139044</v>
+        <v>0.0643892573387248</v>
       </c>
       <c r="E18">
-        <v>0.5867234126350667</v>
+        <v>2.044154327361213</v>
       </c>
       <c r="F18">
-        <v>0.6921955384214868</v>
+        <v>0.6515950494124922</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5058305713976381</v>
+        <v>1.64998068489362</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.229203411001968</v>
+        <v>0.4988037362529016</v>
       </c>
       <c r="O18">
-        <v>2.301528493406948</v>
+        <v>1.764990474331</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5069952241467774</v>
+        <v>1.541705204617443</v>
       </c>
       <c r="C19">
-        <v>0.07972316468554652</v>
+        <v>0.2267326967569829</v>
       </c>
       <c r="D19">
-        <v>0.02936184354761906</v>
+        <v>0.06395352222948958</v>
       </c>
       <c r="E19">
-        <v>0.5817310227705832</v>
+        <v>2.024401512104376</v>
       </c>
       <c r="F19">
-        <v>0.6916001325926686</v>
+        <v>0.6475055956080951</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5016477004942033</v>
+        <v>1.635601706459568</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.230448318999894</v>
+        <v>0.5018806995170708</v>
       </c>
       <c r="O19">
-        <v>2.30083289115251</v>
+        <v>1.756027263986056</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5246630061444364</v>
+        <v>1.603568054754049</v>
       </c>
       <c r="C20">
-        <v>0.08210218187672069</v>
+        <v>0.2345660957436593</v>
       </c>
       <c r="D20">
-        <v>0.03004309111564396</v>
+        <v>0.06591366157848455</v>
       </c>
       <c r="E20">
-        <v>0.6042067938678031</v>
+        <v>2.113626501716539</v>
       </c>
       <c r="F20">
-        <v>0.6943104583603485</v>
+        <v>0.666026397624421</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5204695415433491</v>
+        <v>1.70037667229596</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.224879038154796</v>
+        <v>0.4881219052430807</v>
       </c>
       <c r="O20">
-        <v>2.304064543443786</v>
+        <v>1.796734647189254</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5840720110724078</v>
+        <v>1.812779216493311</v>
       </c>
       <c r="C21">
-        <v>0.09006645640046429</v>
+        <v>0.2610264120974932</v>
       </c>
       <c r="D21">
-        <v>0.03232035906245301</v>
+        <v>0.07248758292980284</v>
       </c>
       <c r="E21">
-        <v>0.6798951215307767</v>
+        <v>2.419875597748614</v>
       </c>
       <c r="F21">
-        <v>0.7039588958371326</v>
+        <v>0.7304408377002716</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5836797755066243</v>
+        <v>1.91933851776318</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.206744158572606</v>
+        <v>0.4434840861829479</v>
       </c>
       <c r="O21">
-        <v>2.316699440240058</v>
+        <v>1.940400520352114</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.622932806178369</v>
+        <v>1.950691553749124</v>
       </c>
       <c r="C22">
-        <v>0.09524985580911505</v>
+        <v>0.2784483484633569</v>
       </c>
       <c r="D22">
-        <v>0.03379985458066415</v>
+        <v>0.07677602222305069</v>
       </c>
       <c r="E22">
-        <v>0.7294994389327059</v>
+        <v>2.625629038630876</v>
       </c>
       <c r="F22">
-        <v>0.7106696982456668</v>
+        <v>0.774329946166489</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6249681334511195</v>
+        <v>2.063608226613638</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.195322883767864</v>
+        <v>0.4155617299635184</v>
       </c>
       <c r="O22">
-        <v>2.326285251598364</v>
+        <v>2.039927065127671</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6021891218030078</v>
+        <v>1.876965859786452</v>
       </c>
       <c r="C23">
-        <v>0.09248537614871566</v>
+        <v>0.2691365781205377</v>
       </c>
       <c r="D23">
-        <v>0.03301103839235253</v>
+        <v>0.07448787610428553</v>
       </c>
       <c r="E23">
-        <v>0.70301152019114</v>
+        <v>2.515248388519282</v>
       </c>
       <c r="F23">
-        <v>0.70705089919106</v>
+        <v>0.7507308668821935</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6029340020307643</v>
+        <v>1.986490199818036</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.201379154373726</v>
+        <v>0.4303455128351796</v>
       </c>
       <c r="O23">
-        <v>2.321047353218461</v>
+        <v>1.986259211990159</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5236925916059079</v>
+        <v>1.600166128622249</v>
       </c>
       <c r="C24">
-        <v>0.08197164587939199</v>
+        <v>0.2341354479729887</v>
       </c>
       <c r="D24">
-        <v>0.03000572359317744</v>
+        <v>0.06580606686176793</v>
       </c>
       <c r="E24">
-        <v>0.6029719041563197</v>
+        <v>2.108704238036822</v>
       </c>
       <c r="F24">
-        <v>0.6941595831670782</v>
+        <v>0.6650014854696167</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5194360386356891</v>
+        <v>1.696814976180121</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.225182707146136</v>
+        <v>0.4888716525075678</v>
       </c>
       <c r="O24">
-        <v>2.303880400991744</v>
+        <v>1.794474452154134</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4391779234185833</v>
+        <v>1.305616931197022</v>
       </c>
       <c r="C25">
-        <v>0.0705387674002651</v>
+        <v>0.1967874927508149</v>
       </c>
       <c r="D25">
-        <v>0.02672713387346448</v>
+        <v>0.05640158720035515</v>
       </c>
       <c r="E25">
-        <v>0.4955964288447348</v>
+        <v>1.689374722117577</v>
       </c>
       <c r="F25">
-        <v>0.6819867835137572</v>
+        <v>0.5792093663527567</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4292823501930059</v>
+        <v>1.388251836783439</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.252703924108974</v>
+        <v>0.5569575451592783</v>
       </c>
       <c r="O25">
-        <v>2.291040909878177</v>
+        <v>1.608691225994932</v>
       </c>
     </row>
   </sheetData>
